--- a/PreLaboratorioDiegoMazariegos.xlsx
+++ b/PreLaboratorioDiegoMazariegos.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F1597E-4100-4444-B5BA-CA2BFC706844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A8A08DD-97A0-45BA-8764-27C6802A7AC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Listado de premios" sheetId="1" r:id="rId1"/>
+    <sheet name="Ganadores y perdedores" sheetId="1" r:id="rId1"/>
     <sheet name="Modelo autos 2025" sheetId="2" r:id="rId2"/>
-    <sheet name="Problema 3" sheetId="3" r:id="rId3"/>
+    <sheet name="Problema 3 %" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -458,7 +458,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection sqref="A1:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -889,8 +889,8 @@
   </sheetPr>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -924,19 +924,19 @@
         <v>25</v>
       </c>
       <c r="B2" s="9" t="str">
-        <f>IF(A2="Mercedes 321","15060","7230")</f>
+        <f t="shared" ref="B2:B8" si="0">IF(A2="Mercedes 321","15060","7230")</f>
         <v>15060</v>
       </c>
       <c r="C2" s="4" t="str">
-        <f>IF(B2="15060","Aplazado","Al contado")</f>
+        <f t="shared" ref="C2:C8" si="1">IF(B2="15060","Aplazado","Al contado")</f>
         <v>Aplazado</v>
       </c>
       <c r="D2" s="4" t="str">
-        <f t="shared" ref="D2:D8" si="0">IF(C2="Al contado",B2*0.05," ")</f>
+        <f t="shared" ref="D2:D8" si="2">IF(C2="Al contado",B2*0.05," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E2" s="4" t="str">
-        <f t="shared" ref="E2:E8" si="1">IF(D2=361.5,B2-D2,B2)</f>
+        <f t="shared" ref="E2:E8" si="3">IF(D2=361.5,B2-D2,B2)</f>
         <v>15060</v>
       </c>
     </row>
@@ -945,11 +945,11 @@
         <v>26</v>
       </c>
       <c r="B3" s="9" t="str">
-        <f>IF(A3="Mercedes 321","15060","7230")</f>
+        <f t="shared" si="0"/>
         <v>7230</v>
       </c>
       <c r="C3" s="4" t="str">
-        <f>IF(B3="15060","Aplazado","Al contado")</f>
+        <f t="shared" si="1"/>
         <v>Al contado</v>
       </c>
       <c r="D3" s="4">
@@ -957,7 +957,7 @@
         <v>361.5</v>
       </c>
       <c r="E3" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6868.5</v>
       </c>
     </row>
@@ -966,19 +966,19 @@
         <v>27</v>
       </c>
       <c r="B4" s="9" t="str">
-        <f>IF(A4="Mercedes 321","15060","7230")</f>
+        <f t="shared" si="0"/>
         <v>7230</v>
       </c>
       <c r="C4" s="4" t="str">
-        <f>IF(B4="15060","Aplazado","Al contado")</f>
+        <f t="shared" si="1"/>
         <v>Al contado</v>
       </c>
       <c r="D4" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>361.5</v>
       </c>
       <c r="E4" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6868.5</v>
       </c>
     </row>
@@ -987,19 +987,19 @@
         <v>26</v>
       </c>
       <c r="B5" s="9" t="str">
-        <f>IF(A5="Mercedes 321","15060","7230")</f>
+        <f t="shared" si="0"/>
         <v>7230</v>
       </c>
       <c r="C5" s="4" t="str">
-        <f>IF(B5="15060","Aplazado","Al contado")</f>
+        <f t="shared" si="1"/>
         <v>Al contado</v>
       </c>
       <c r="D5" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>361.5</v>
       </c>
       <c r="E5" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6868.5</v>
       </c>
     </row>
@@ -1008,19 +1008,19 @@
         <v>25</v>
       </c>
       <c r="B6" s="9" t="str">
-        <f>IF(A6="Mercedes 321","15060","7230")</f>
+        <f t="shared" si="0"/>
         <v>15060</v>
       </c>
       <c r="C6" s="4" t="str">
-        <f>IF(B6="15060","Aplazado","Al contado")</f>
+        <f t="shared" si="1"/>
         <v>Aplazado</v>
       </c>
       <c r="D6" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E6" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>15060</v>
       </c>
     </row>
@@ -1029,19 +1029,19 @@
         <v>27</v>
       </c>
       <c r="B7" s="9" t="str">
-        <f>IF(A7="Mercedes 321","15060","7230")</f>
+        <f t="shared" si="0"/>
         <v>7230</v>
       </c>
       <c r="C7" s="4" t="str">
-        <f>IF(B7="15060","Aplazado","Al contado")</f>
+        <f t="shared" si="1"/>
         <v>Al contado</v>
       </c>
       <c r="D7" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>361.5</v>
       </c>
       <c r="E7" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6868.5</v>
       </c>
     </row>
@@ -1050,19 +1050,19 @@
         <v>25</v>
       </c>
       <c r="B8" s="9" t="str">
-        <f>IF(A8="Mercedes 321","15060","7230")</f>
+        <f t="shared" si="0"/>
         <v>15060</v>
       </c>
       <c r="C8" s="4" t="str">
-        <f>IF(B8="15060","Aplazado","Al contado")</f>
+        <f t="shared" si="1"/>
         <v>Aplazado</v>
       </c>
       <c r="D8" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E8" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>15060</v>
       </c>
     </row>
@@ -1078,8 +1078,8 @@
   </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/PreLaboratorioDiegoMazariegos.xlsx
+++ b/PreLaboratorioDiegoMazariegos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A8A08DD-97A0-45BA-8764-27C6802A7AC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E4BCA0F-AFFF-4437-88DF-1AAFC66C25AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -152,17 +152,20 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Courier New"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -458,7 +461,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G18"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -506,19 +509,19 @@
         <v>60</v>
       </c>
       <c r="D2" s="2">
-        <f t="shared" ref="D2:D8" si="0">IF(C2&gt;=50,C2,"No gano dolares extra")</f>
+        <f>IF(C2&gt;=50,C2,"No se ha ganado")</f>
         <v>60</v>
       </c>
       <c r="E2" s="2" t="str">
-        <f t="shared" ref="E2:E8" si="1">IF(B2=1,"SI"," ")</f>
+        <f t="shared" ref="E2:E8" si="0">IF(B2=1,"SI"," ")</f>
         <v>SI</v>
       </c>
       <c r="F2" s="2" t="str">
-        <f t="shared" ref="F2:F8" si="2">IF(E2 = "SI","No","Si")</f>
+        <f t="shared" ref="F2:F8" si="1">IF(E2 = "SI","No","Si")</f>
         <v>No</v>
       </c>
       <c r="G2" s="2" t="str">
-        <f t="shared" ref="G2:G8" si="3">IF(C2&gt;=100, "Viaje a París","Otra vez será")</f>
+        <f t="shared" ref="G2:G8" si="2">IF(C2&gt;=100, "Viaje a París","Otra vez será")</f>
         <v>Otra vez será</v>
       </c>
     </row>
@@ -533,19 +536,19 @@
         <v>150</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" si="0"/>
+        <f>IF(C3&gt;=50,C3,"No se ha ganado")</f>
         <v>150</v>
       </c>
       <c r="E3" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F3" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F3" s="2" t="str">
+        <v>Si</v>
+      </c>
+      <c r="G3" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Si</v>
-      </c>
-      <c r="G3" s="2" t="str">
-        <f t="shared" si="3"/>
         <v>Viaje a París</v>
       </c>
     </row>
@@ -560,19 +563,19 @@
         <v>120</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" si="0"/>
+        <f>IF(C4&gt;=50,C4,"No se ha ganado")</f>
         <v>120</v>
       </c>
       <c r="E4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F4" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F4" s="2" t="str">
+        <v>Si</v>
+      </c>
+      <c r="G4" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Si</v>
-      </c>
-      <c r="G4" s="2" t="str">
-        <f t="shared" si="3"/>
         <v>Viaje a París</v>
       </c>
     </row>
@@ -591,15 +594,15 @@
         <v>No se ha ganado</v>
       </c>
       <c r="E5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F5" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F5" s="2" t="str">
+        <v>Si</v>
+      </c>
+      <c r="G5" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Si</v>
-      </c>
-      <c r="G5" s="2" t="str">
-        <f t="shared" si="3"/>
         <v>Otra vez será</v>
       </c>
     </row>
@@ -614,19 +617,19 @@
         <v>90</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" si="0"/>
+        <f>IF(C6&gt;=50,C6,"No se ha ganado")</f>
         <v>90</v>
       </c>
       <c r="E6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>SI</v>
+      </c>
+      <c r="F6" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>SI</v>
-      </c>
-      <c r="F6" s="2" t="str">
+        <v>No</v>
+      </c>
+      <c r="G6" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>No</v>
-      </c>
-      <c r="G6" s="2" t="str">
-        <f t="shared" si="3"/>
         <v>Otra vez será</v>
       </c>
     </row>
@@ -641,19 +644,19 @@
         <v>120</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" si="0"/>
+        <f>IF(C7&gt;=50,C7,"No se ha ganado")</f>
         <v>120</v>
       </c>
       <c r="E7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F7" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F7" s="2" t="str">
+        <v>Si</v>
+      </c>
+      <c r="G7" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Si</v>
-      </c>
-      <c r="G7" s="2" t="str">
-        <f t="shared" si="3"/>
         <v>Viaje a París</v>
       </c>
     </row>
@@ -668,19 +671,19 @@
         <v>60</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" si="0"/>
+        <f>IF(C8&gt;=50,C8,"No se ha ganado")</f>
         <v>60</v>
       </c>
       <c r="E8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F8" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F8" s="2" t="str">
+        <v>Si</v>
+      </c>
+      <c r="G8" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Si</v>
-      </c>
-      <c r="G8" s="2" t="str">
-        <f t="shared" si="3"/>
         <v>Otra vez será</v>
       </c>
     </row>
@@ -795,27 +798,27 @@
         <v>17</v>
       </c>
       <c r="B16" s="3" t="str">
-        <f t="shared" ref="B16:G16" si="4">IF(B15&gt;=80, "1500","0")</f>
+        <f t="shared" ref="B16:G16" si="3">IF(B15&gt;=80, "1500","0")</f>
         <v>0</v>
       </c>
       <c r="C16" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1500</v>
       </c>
       <c r="D16" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1500</v>
       </c>
       <c r="E16" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F16" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1500</v>
       </c>
       <c r="G16" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1500</v>
       </c>
     </row>
@@ -824,27 +827,27 @@
         <v>18</v>
       </c>
       <c r="B17" s="3" t="str">
-        <f t="shared" ref="B17:G17" si="5">IF(B15&gt;=120, "agenda","reloj")</f>
+        <f t="shared" ref="B17:G17" si="4">IF(B15&gt;=120, "agenda","reloj")</f>
         <v>reloj</v>
       </c>
       <c r="C17" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>agenda</v>
       </c>
       <c r="D17" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>agenda</v>
       </c>
       <c r="E17" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>reloj</v>
       </c>
       <c r="F17" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>reloj</v>
       </c>
       <c r="G17" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>agenda</v>
       </c>
     </row>
@@ -853,27 +856,27 @@
         <v>19</v>
       </c>
       <c r="B18" s="3" t="str">
-        <f t="shared" ref="B18:G18" si="6">IF(B17="reloj","$60","180$")</f>
+        <f t="shared" ref="B18:G18" si="5">IF(B17="reloj","$60","180$")</f>
         <v>$60</v>
       </c>
       <c r="C18" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>180$</v>
       </c>
       <c r="D18" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>180$</v>
       </c>
       <c r="E18" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>$60</v>
       </c>
       <c r="F18" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>$60</v>
       </c>
       <c r="G18" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>180$</v>
       </c>
     </row>
@@ -890,7 +893,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1079,7 +1082,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
